--- a/src/test/resources/PDRC_Data_Init.xlsx
+++ b/src/test/resources/PDRC_Data_Init.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="7" r:id="rId1"/>
     <sheet name="Total2" sheetId="8" r:id="rId2"/>
-    <sheet name="User" sheetId="1" r:id="rId3"/>
-    <sheet name="TM" sheetId="2" r:id="rId4"/>
-    <sheet name="RM" sheetId="3" r:id="rId5"/>
-    <sheet name="PM" sheetId="4" r:id="rId6"/>
-    <sheet name="PGM" sheetId="5" r:id="rId7"/>
-    <sheet name="PDM" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="Function_Role" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId5"/>
+    <sheet name="User" sheetId="1" r:id="rId6"/>
+    <sheet name="TM" sheetId="2" r:id="rId7"/>
+    <sheet name="RM" sheetId="3" r:id="rId8"/>
+    <sheet name="PM" sheetId="4" r:id="rId9"/>
+    <sheet name="PGM" sheetId="5" r:id="rId10"/>
+    <sheet name="PDM" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="285">
   <si>
     <t>B-33402</t>
   </si>
@@ -790,6 +793,117 @@
   </si>
   <si>
     <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US_06</t>
+  </si>
+  <si>
+    <t>任务看板--创建任务</t>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US_07</t>
+  </si>
+  <si>
+    <t>任务看板--我发布的任务</t>
+  </si>
+  <si>
+    <t>US_08</t>
+  </si>
+  <si>
+    <t>任务看板--按工作城市查询任务</t>
+  </si>
+  <si>
+    <t>US_09</t>
+  </si>
+  <si>
+    <t>任务看板--按技能查询任务</t>
+  </si>
+  <si>
+    <t>US_10</t>
+  </si>
+  <si>
+    <t>任务看板--按领域查询任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力看板--人力查询-按工作城市查询</t>
+  </si>
+  <si>
+    <t>US_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力看板--人力查询-按技能查询</t>
+  </si>
+  <si>
+    <t>US_03</t>
+  </si>
+  <si>
+    <t>人力看板--人力查询-按领域查询</t>
+  </si>
+  <si>
+    <t>US_04</t>
+  </si>
+  <si>
+    <t>人力看板--我的人力档案</t>
+  </si>
+  <si>
+    <t>US_05</t>
+  </si>
+  <si>
+    <t>人力看板--我的汇报线</t>
+  </si>
+  <si>
+    <t>STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,7 +911,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,16 +926,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -829,12 +964,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2365,12 +2539,40 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3198,12 +3400,309 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3211,12 +3710,314 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>51</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>52</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>53</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>54</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>55</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>56</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>57</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>58</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>59</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>60</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3224,12 +4025,214 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="1">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3237,130 +4240,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3383,13 +4268,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>